--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 2/W2_V2 Changing_Case.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 2/W2_V2 Changing_Case.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users-Data\mq20021873\Desktop\Coursera 20 April 2017\Course 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB701C75-E158-438C-A14D-D3B649D1286F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$J$24</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -512,7 +513,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -933,11 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="O7" sqref="O6:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,12 +1022,12 @@
         <v>65</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.CONCAT(C4," ",B4)</f>
+        <f>PROPER(CONCATENATE(C4, " ", B4))</f>
         <v>Stevie Bacata</v>
       </c>
       <c r="E4" t="str">
-        <f>C4&amp;"."&amp;B4&amp;"@pushpin.com"</f>
-        <v>Stevie.Bacata@pushpin.com</v>
+        <f>LOWER(C4&amp;"."&amp;B4&amp;"@pushpin.com")</f>
+        <v>stevie.bacata@pushpin.com</v>
       </c>
       <c r="F4" s="1">
         <v>39556</v>
@@ -1056,12 +1057,12 @@
         <v>17</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D38" si="0">_xlfn.CONCAT(C5," ",B5)</f>
-        <v>Adam BARRY</v>
+        <f t="shared" ref="D5:D38" si="0">PROPER(CONCATENATE(C5, " ", B5))</f>
+        <v>Adam Barry</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E38" si="1">C5&amp;"."&amp;B5&amp;"@pushpin.com"</f>
-        <v>Adam.BARRY@pushpin.com</v>
+        <f t="shared" ref="E5:E7" si="1">LOWER(C5&amp;"."&amp;B5&amp;"@pushpin.com")</f>
+        <v>adam.barry@pushpin.com</v>
       </c>
       <c r="F5" s="1">
         <v>38104</v>
@@ -1096,7 +1097,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
-        <v>Connor.Betts@pushpin.com</v>
+        <v>connor.betts@pushpin.com</v>
       </c>
       <c r="F6" s="1">
         <v>41961</v>
@@ -1127,7 +1128,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>carlos martinez</v>
+        <v>Carlos Martinez</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
@@ -1165,8 +1166,8 @@
         <v>Yvette Biti</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>Yvette.Biti@pushpin.com</v>
+        <f t="shared" ref="E5:E38" si="2">LOWER(C8&amp;"."&amp;B8&amp;"@pushpin.com")</f>
+        <v>yvette.biti@pushpin.com</v>
       </c>
       <c r="F8" s="1">
         <v>42389</v>
@@ -1197,11 +1198,11 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>Jim BOLLER</v>
+        <v>Jim Boller</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>Jim.BOLLER@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>jim.boller@pushpin.com</v>
       </c>
       <c r="F9" s="1">
         <v>41898</v>
@@ -1235,8 +1236,8 @@
         <v>Charlie Bui</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>Charlie.Bui@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>charlie.bui@pushpin.com</v>
       </c>
       <c r="F10" s="1">
         <v>41908</v>
@@ -1270,8 +1271,8 @@
         <v>Tina Carlton</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>Tina.Carlton@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>tina.carlton@pushpin.com</v>
       </c>
       <c r="F11" s="1">
         <v>38803</v>
@@ -1302,11 +1303,11 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>Joe CAROL</v>
+        <v>Joe Carol</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>Joe.CAROL@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>joe.carol@pushpin.com</v>
       </c>
       <c r="F12" s="1">
         <v>36928</v>
@@ -1337,11 +1338,11 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>Jim CHAFFEE</v>
+        <v>Jim Chaffee</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>Jim.CHAFFEE@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>jim.chaffee@pushpin.com</v>
       </c>
       <c r="F13" s="1">
         <v>41792</v>
@@ -1375,8 +1376,8 @@
         <v>Samantha Chairs</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>Samantha.Chairs@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>samantha.chairs@pushpin.com</v>
       </c>
       <c r="F14" s="1">
         <v>40595</v>
@@ -1407,11 +1408,11 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>Uma CHAUDRI</v>
+        <v>Uma Chaudri</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>Uma.CHAUDRI@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>uma.chaudri@pushpin.com</v>
       </c>
       <c r="F15" s="1">
         <v>40994</v>
@@ -1442,11 +1443,11 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>Elizabeth CHU</v>
+        <v>Elizabeth Chu</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>Elizabeth.CHU@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>elizabeth.chu@pushpin.com</v>
       </c>
       <c r="F16" s="1">
         <v>40225</v>
@@ -1477,11 +1478,11 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>Eric CHUNG</v>
+        <v>Eric Chung</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>Eric.CHUNG@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>eric.chung@pushpin.com</v>
       </c>
       <c r="F17" s="1">
         <v>36955</v>
@@ -1512,11 +1513,11 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>elizabeth CLARK</v>
+        <v>Elizabeth Clark</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>elizabeth.CLARK@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>elizabeth.clark@pushpin.com</v>
       </c>
       <c r="F18" s="1">
         <v>42912</v>
@@ -1547,11 +1548,11 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>ANNA CLARK</v>
+        <v>Anna Clark</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>ANNA.CLARK@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>anna.clark@pushpin.com</v>
       </c>
       <c r="F19" s="1">
         <v>41995</v>
@@ -1582,11 +1583,11 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>Sabrina COLE</v>
+        <v>Sabrina Cole</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>Sabrina.COLE@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>sabrina.cole@pushpin.com</v>
       </c>
       <c r="F20" s="1">
         <v>41407</v>
@@ -1617,11 +1618,11 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>Janet COMUNTZIS</v>
+        <v>Janet Comuntzis</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>Janet.COMUNTZIS@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>janet.comuntzis@pushpin.com</v>
       </c>
       <c r="F21" s="1">
         <v>39692</v>
@@ -1652,11 +1653,11 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>Bob DECKER</v>
+        <v>Bob Decker</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>Bob.DECKER@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>bob.decker@pushpin.com</v>
       </c>
       <c r="F22" s="1">
         <v>41214</v>
@@ -1687,11 +1688,11 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>Tina DESIATO</v>
+        <v>Tina Desiato</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>Tina.DESIATO@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>tina.desiato@pushpin.com</v>
       </c>
       <c r="F23" s="1">
         <v>41176</v>
@@ -1722,11 +1723,11 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>Alexandra DONNELL</v>
+        <v>Alexandra Donnell</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>Alexandra.DONNELL@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>alexandra.donnell@pushpin.com</v>
       </c>
       <c r="F24" s="1">
         <v>42233</v>
@@ -1757,11 +1758,11 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>Mark ELLIS</v>
+        <v>Mark Ellis</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>Mark.ELLIS@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>mark.ellis@pushpin.com</v>
       </c>
       <c r="F25" s="1">
         <v>42376</v>
@@ -1795,8 +1796,8 @@
         <v>Nicholas Fernandes</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>Nicholas.Fernandes@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>nicholas.fernandes@pushpin.com</v>
       </c>
       <c r="F26" s="1">
         <v>39028</v>
@@ -1827,11 +1828,11 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>Mary FERRIS</v>
+        <v>Mary Ferris</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>Mary.FERRIS@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>mary.ferris@pushpin.com</v>
       </c>
       <c r="F27" s="1">
         <v>38553</v>
@@ -1862,11 +1863,11 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>Susan FILOSA</v>
+        <v>Susan Filosa</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>Susan.FILOSA@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>susan.filosa@pushpin.com</v>
       </c>
       <c r="F28" s="1">
         <v>38749</v>
@@ -1897,11 +1898,11 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>Daniel FLANDERS</v>
+        <v>Daniel Flanders</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>Daniel.FLANDERS@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>daniel.flanders@pushpin.com</v>
       </c>
       <c r="F29" s="1">
         <v>37515</v>
@@ -1935,8 +1936,8 @@
         <v>Leighton Forrest</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>Leighton.Forrest@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>leighton.forrest@pushpin.com</v>
       </c>
       <c r="F30" s="1">
         <v>42125</v>
@@ -1970,8 +1971,8 @@
         <v>Phoebe Gour</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>Phoebe.Gour@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>phoebe.gour@pushpin.com</v>
       </c>
       <c r="F31" s="1">
         <v>42726</v>
@@ -2005,8 +2006,8 @@
         <v>Mihael Khan</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v>Mihael.Khan@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>mihael.khan@pushpin.com</v>
       </c>
       <c r="F32" s="1">
         <v>40162</v>
@@ -2037,11 +2038,11 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>Sean SANDERS</v>
+        <v>Sean Sanders</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>Sean.SANDERS@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>sean.sanders@pushpin.com</v>
       </c>
       <c r="F33" s="1">
         <v>42892</v>
@@ -2075,8 +2076,8 @@
         <v>Radhya Staples</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v>Radhya.Staples@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>radhya.staples@pushpin.com</v>
       </c>
       <c r="F34" s="1">
         <v>42325</v>
@@ -2110,8 +2111,8 @@
         <v>Natasha Song</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v>Natasha.Song@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>natasha.song@pushpin.com</v>
       </c>
       <c r="F35" s="1">
         <v>40714</v>
@@ -2145,8 +2146,8 @@
         <v>Preston Senome</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
-        <v>Preston.Senome@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>preston.senome@pushpin.com</v>
       </c>
       <c r="F36" s="1">
         <v>42326</v>
@@ -2177,11 +2178,11 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>Mei WANG</v>
+        <v>Mei Wang</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
-        <v>Mei.WANG@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>mei.wang@pushpin.com</v>
       </c>
       <c r="F37" s="1">
         <v>40189</v>
@@ -2215,8 +2216,8 @@
         <v>Aanya Zhang</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
-        <v>Aanya.Zhang@pushpin.com</v>
+        <f t="shared" si="2"/>
+        <v>aanya.zhang@pushpin.com</v>
       </c>
       <c r="F38" s="1">
         <v>42009</v>
@@ -2236,7 +2237,7 @@
       <c r="M38" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A4:M38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M38">
     <sortCondition ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 2/W2_V2 Changing_Case.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 2/W2_V2 Changing_Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB701C75-E158-438C-A14D-D3B649D1286F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633C9472-2A3D-40B6-8682-81FBC500FBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,7 +938,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O7" sqref="O6:O7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,7 +1166,7 @@
         <v>Yvette Biti</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" ref="E5:E38" si="2">LOWER(C8&amp;"."&amp;B8&amp;"@pushpin.com")</f>
+        <f t="shared" ref="E8:E38" si="2">LOWER(C8&amp;"."&amp;B8&amp;"@pushpin.com")</f>
         <v>yvette.biti@pushpin.com</v>
       </c>
       <c r="F8" s="1">
